--- a/EAM_API/EAM.API/TemplateExcel/BaoCaoKeHoachBTBD.xlsx
+++ b/EAM_API/EAM.API/TemplateExcel/BaoCaoKeHoachBTBD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project\EAM\EAM_API\EAM.API\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB2187A-14C2-46C2-99AC-07EF4F39CD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB2DE7F-4E0C-4A61-AD0C-E53B54146DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC0228CE-ADD0-4C25-AA00-899FD0E426EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>KẾ HOẠCH VÀ BÁO CÁO KẾT QUẢ THỰC HIỆN BẢO TRÌ BẢO DƯỠNG, KIỂM ĐỊNH HIỆU CHUẨN (THEO NHÓM THIẾT BỊ)</t>
   </si>
@@ -80,45 +80,6 @@
   </si>
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>Tổng cộng</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1701 - Bình chữa cháy</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>6600-6620-KHOC-VPKC - Kho C- Văn phòng</t>
-  </si>
-  <si>
-    <t>Bình MT5 22-12-033</t>
-  </si>
-  <si>
-    <t>Kiểm tra bình hàng tháng MT5- Ngày 09</t>
-  </si>
-  <si>
-    <t>1-Tháng</t>
-  </si>
-  <si>
-    <t>09/04/2025</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>TKNB- Phòng BV</t>
   </si>
   <si>
     <t>Hướng dẫn theo dõi thực hiện kế hoạch:
@@ -164,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +173,12 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -285,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,14 +271,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,88 +327,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{DEB27F8F-CDCF-4C09-AC9E-65CAA339FF2B}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -460,12 +421,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -851,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FEABBD-EE95-4440-AA75-FBB4CD26FECA}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A12"/>
@@ -868,11 +823,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="A1" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -896,9 +851,9 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -922,9 +877,9 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -948,79 +903,79 @@
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24" ht="17.399999999999999">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24" ht="16.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="7"/>
     </row>
     <row r="6" spans="1:24" ht="16.05" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1031,26 +986,26 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="9"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="7"/>
     </row>
     <row r="7" spans="1:24" ht="16.05" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1061,26 +1016,26 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="9"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="7"/>
     </row>
     <row r="8" spans="1:24" ht="16.05" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1091,461 +1046,336 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="9"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="7"/>
     </row>
     <row r="9" spans="1:24" ht="16.05" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="9"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="9"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="7"/>
     </row>
     <row r="11" spans="1:24" ht="19.95" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="26" t="s">
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="26" t="s">
+      <c r="W11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="9"/>
+      <c r="X11" s="7"/>
     </row>
     <row r="12" spans="1:24" ht="19.95" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29">
+      <c r="A12" s="41"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="23">
         <v>1</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="23">
         <v>2</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="23">
         <v>3</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="23">
         <v>4</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="23">
         <v>5</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="23">
         <v>6</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="23">
         <v>7</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="23">
         <v>8</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="23">
         <v>9</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="23">
         <v>10</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="23">
         <v>11</v>
       </c>
-      <c r="U12" s="29">
+      <c r="U12" s="23">
         <v>12</v>
       </c>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="9"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="30" t="s">
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="7"/>
+    </row>
+    <row r="13" spans="1:24" ht="19.95" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="29"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="32">
-        <v>1</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="32">
-        <v>1</v>
-      </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="7"/>
-    </row>
-    <row r="14" spans="1:24" ht="39.6">
-      <c r="A14" s="30" t="s">
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="6"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="32">
-        <v>1</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="32">
-        <v>1</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="7"/>
-    </row>
-    <row r="15" spans="1:24" ht="66">
-      <c r="A15" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="32">
-        <v>7100003380</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32">
-        <v>100000017242</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="T15" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="U15" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="V15" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="W15" s="34"/>
-      <c r="X15" s="7"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="7"/>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="7"/>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="7"/>
-      <c r="B20" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="7"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:U11"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="A17:W17"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:V4"/>
     <mergeCell ref="A11:A12"/>
@@ -1555,23 +1385,32 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:U11"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="A15:W15"/>
   </mergeCells>
-  <conditionalFormatting sqref="N18:T18 A15 A17:T17 A18:G18 A13:W14 A16:W16 A19:T20">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="A14:W14 A15:T15 A16:G16 N16:T16 A17:T18">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>#REF!="X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15 A17:T17 A18:G18 N18:T18 A16:W16 A19:T20">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:W14">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>